--- a/biology/Médecine/Léon_Vannier/Léon_Vannier.xlsx
+++ b/biology/Médecine/Léon_Vannier/Léon_Vannier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Vannier</t>
+          <t>Léon_Vannier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Léon Ernest Vannier, né le 31 octobre 1880 à Segré[1], et mort le  22 septembre 1963 à Quiberon, est un médecin homéopathe parisien, devenu en 1915 le chef de file de l'homéopathie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Léon Ernest Vannier, né le 31 octobre 1880 à Segré, et mort le  22 septembre 1963 à Quiberon, est un médecin homéopathe parisien, devenu en 1915 le chef de file de l'homéopathie.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Vannier</t>
+          <t>Léon_Vannier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Jean Vannier et d'Agathe Jouin, il est né en Maine-et-Loire à Segré en 1880. Il s'installe comme médecin homéopathe à Paris en 1905. Il est notamment l'initiateur :
-du journal L'Homéopathie française (aujourd'hui L'Homéopathie européenne) en 1912[2]
+du journal L'Homéopathie française (aujourd'hui L'Homéopathie européenne) en 1912
 des Laboratoires homéopathiques de France (rachetés en 1988 par les laboratoires Boiron)
-du centre homéopathique de France en 1931[3].
+du centre homéopathique de France en 1931.
 « Faire connaître l’homéopathie et surtout en faire une médecine propre et adaptée aux connaissances modernes de la médecine et ainsi lutter contre, non seulement l'opposition rencontrée dans les milieux officiels, mais aussi contre une certaine forme d'application des connaissances homéopathiques qui n'étaient pas orthodoxes » (Dr Léon Vannier).
 Léon Vannier repose au cimetière ancien de Rueil-Malmaison.
 </t>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Vannier</t>
+          <t>Léon_Vannier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Officier de la Légion d'honneur (1er aout 1956)
  Officier de l'Instruction publique
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Vannier</t>
+          <t>Léon_Vannier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La Doctrine de l’homéopathie française
 Les Origines et l’avenir de l’homéopathie
